--- a/新建 Microsoft Excel 工作表.xlsx
+++ b/新建 Microsoft Excel 工作表.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新工作空间\工作空间\yh-ccl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\工作空间\yh-ccl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7484D413-E5E0-4B3B-A987-9834D743399C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BECFB1D-847B-4903-88C4-677B14197D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="12196" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="bandwdith efficient 细粒度分片" sheetId="2" r:id="rId2"/>
+    <sheet name="节点内节点间重叠" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -24,9 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="71">
   <si>
     <t>多leader规约和多leader 节点间通信分离以方便支持rdma</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -221,12 +220,110 @@
     <t>分片太小导致偏大的消息性能差</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>DPML</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pipeline-dpml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11节点*24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100节点*24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100节点*4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个节点进程数量较少时显现出节点内节点间通信重叠的优势</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个节点进程数量开满时出现异常情况，性能没有区别，甚至略有下降</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原因分析：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存带宽受限，导致节点间内节点间通信受限于访存带宽。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规约时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dpml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点间allreduce时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点内规约+节点间规约时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2节点*24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空转时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空转时间大于节点间通信时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DPML和PIPELinedDPML的空转时间随着消息大小变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是因为节点内规约是分片进行的，将片变大可以观察到空转时间减少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改分片大小之后的对比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改进方法是使用协程或者多线程在用户空间进行节点间通信。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>通过top对Iallreduce进行分析知：Iallreduce应是将数据放入到内核空间进行处理，
+产生大量系统调用开销，并且</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>只有一个核在处理数据。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,8 +338,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -252,6 +357,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -268,12 +379,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2689,6 +2801,1179 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>节点内节点间重叠!$B$2:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>14.181480000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.572662999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40.357689999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63.143450000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90.147554999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>126.281543</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>162.577112</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>180.848333</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>184.180654</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>193.41868700000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>193.34579500000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>191.415874</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>192.43140199999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0300-4B46-95C4-BA58FDC0C427}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>节点内节点间重叠!$C$2:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>20.941144999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35.226900999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57.411436000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>88.309351000000007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>140.01855699999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>186.460554</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>209.73191600000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>199.15323599999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>190.44818799999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>192.291493</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>193.77096499999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>189.794524</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>190.736963</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0300-4B46-95C4-BA58FDC0C427}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="419624112"/>
+        <c:axId val="419624944"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="419624112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="419624944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="419624944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="419624112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>节点内节点间重叠!$B$17:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>52.184989000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>101.33747700000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>152.847936</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>370.11870199999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>576.79235500000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>840.41714899999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1206.5674690000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1346.7779559999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1436.9956749999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1552.8750010000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1621.0008439999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1624.9569590000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1634.047245</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C8BA-42B3-B9A4-4376EB0B56D9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>节点内节点间重叠!$C$17:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>138.58807999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>252.42086399999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>429.61420199999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>668.10505699999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>999.84385899999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1381.2237150000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1653.2274379999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1579.763997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1528.693254</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1538.485377</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1562.3208529999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1524.2312810000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1560.7592460000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C8BA-42B3-B9A4-4376EB0B56D9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="686099408"/>
+        <c:axId val="686103152"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="686099408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="686103152"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="686103152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="686099408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>节点内节点间重叠!$B$32:$B$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>18.262734999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62.947938000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>95.568985999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128.284267</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>189.939797</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>274.72895199999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>307.156182</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>336.789242</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>369.944164</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>338.61313200000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>319.76512400000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>315.14479399999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>316.68131799999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AF79-4CB5-A49E-F27EABF1AC0C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>节点内节点间重叠!$C$32:$C$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>49.214528999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78.557305999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>124.42348</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>158.92972900000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>243.22586100000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>295.47083900000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>330.98473200000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>345.941101</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>381.31415800000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>373.711793</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>362.06022300000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>356.273909</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>355.67433899999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AF79-4CB5-A49E-F27EABF1AC0C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="682836560"/>
+        <c:axId val="682831984"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="682836560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="682831984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="682831984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="682836560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2809,6 +4094,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -3842,6 +5247,1554 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4465,6 +7418,251 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>61912</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{051BCA1C-B6E5-4811-AA29-45EFA2D57034}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>423862</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91EBC971-F542-43AD-B67F-45D40DCC7AA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>271462</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>42862</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FD51EE8-8830-4002-B317-205C0163EF72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>208936</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>28345</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93A151AF-0C2D-4047-9815-3AB3F9929BC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11658600" y="7239000"/>
+          <a:ext cx="4914286" cy="1838095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>246949</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>133117</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{278AEBB3-E339-4445-A5C9-84FB77D887C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11687175" y="9305925"/>
+          <a:ext cx="5609524" cy="1866667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>313545</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>142348</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DD4F041-8A00-4860-9A92-807A910BE683}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11811000" y="12211050"/>
+          <a:ext cx="6238095" cy="4219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4739,14 +7937,14 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.796875" customWidth="1"/>
-    <col min="2" max="2" width="24.53125" customWidth="1"/>
-    <col min="3" max="5" width="20.796875" customWidth="1"/>
+    <col min="1" max="1" width="20.75" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="3" max="5" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4754,7 +7952,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4762,17 +7960,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -4786,7 +7984,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -4800,7 +7998,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -4825,19 +8023,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71BA21D9-1292-448A-B225-D09604FC4BE2}">
   <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.3984375" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
-    <col min="4" max="4" width="10.9296875" customWidth="1"/>
-    <col min="5" max="5" width="11.46484375" customWidth="1"/>
+    <col min="2" max="2" width="12.375" customWidth="1"/>
+    <col min="3" max="3" width="20.375" customWidth="1"/>
+    <col min="4" max="4" width="10.875" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="69.400000000000006" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:20" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
@@ -4893,7 +8091,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -4955,7 +8153,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -5017,7 +8215,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -5079,7 +8277,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -5141,7 +8339,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -5203,7 +8401,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -5265,7 +8463,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -5327,7 +8525,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -5389,7 +8587,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -5451,7 +8649,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -5513,7 +8711,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -5575,7 +8773,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -5637,7 +8835,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -5669,7 +8867,7 @@
         <v>27.724786999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -5698,7 +8896,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2.1565539999999999</v>
       </c>
@@ -5730,7 +8928,7 @@
         <v>3.0118109999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>4.1458930000000001</v>
       </c>
@@ -5762,7 +8960,7 @@
         <v>3.7946249999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>8.1587829999999997</v>
       </c>
@@ -5794,7 +8992,7 @@
         <v>4.1147590000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>13.771223000000001</v>
       </c>
@@ -5841,7 +9039,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20.141572</v>
       </c>
@@ -5888,7 +9086,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>26.928052000000001</v>
       </c>
@@ -5935,7 +9133,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>29.930306000000002</v>
       </c>
@@ -5982,7 +9180,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>26.745633999999999</v>
       </c>
@@ -6029,7 +9227,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23.889354999999998</v>
       </c>
@@ -6076,7 +9274,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25.455905000000001</v>
       </c>
@@ -6123,7 +9321,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25.608871000000001</v>
       </c>
@@ -6170,7 +9368,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>20.704944999999999</v>
       </c>
@@ -6217,7 +9415,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>15.876251</v>
       </c>
@@ -6249,27 +9447,27 @@
         <v>26.526748000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
         <v>49</v>
       </c>
@@ -6279,4 +9477,1081 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F351073-A8EE-4C2F-AFE6-FFC74878E33A}">
+  <dimension ref="A1:X82"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="P71" sqref="P71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="3" width="11.25" customWidth="1"/>
+    <col min="16" max="16" width="11.875" customWidth="1"/>
+    <col min="18" max="18" width="16.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1">
+        <v>4096</v>
+      </c>
+      <c r="T1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1">
+        <v>1.4999999999999999E-4</v>
+      </c>
+      <c r="V1" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1">
+        <v>5.233568</v>
+      </c>
+      <c r="X1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>4096</v>
+      </c>
+      <c r="B2">
+        <v>14.181480000000001</v>
+      </c>
+      <c r="C2">
+        <v>20.941144999999999</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S2">
+        <v>8192</v>
+      </c>
+      <c r="T2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U2">
+        <v>1.65E-4</v>
+      </c>
+      <c r="V2" t="s">
+        <v>17</v>
+      </c>
+      <c r="W2">
+        <v>9.5557770000000009</v>
+      </c>
+      <c r="X2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>8192</v>
+      </c>
+      <c r="B3">
+        <v>29.572662999999999</v>
+      </c>
+      <c r="C3">
+        <v>35.226900999999998</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>14</v>
+      </c>
+      <c r="R3" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3">
+        <v>16384</v>
+      </c>
+      <c r="T3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U3">
+        <v>1.63E-4</v>
+      </c>
+      <c r="V3" t="s">
+        <v>17</v>
+      </c>
+      <c r="W3">
+        <v>19.328673999999999</v>
+      </c>
+      <c r="X3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>16384</v>
+      </c>
+      <c r="B4">
+        <v>40.357689999999998</v>
+      </c>
+      <c r="C4">
+        <v>57.411436000000002</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>14</v>
+      </c>
+      <c r="R4" t="s">
+        <v>15</v>
+      </c>
+      <c r="S4">
+        <v>32768</v>
+      </c>
+      <c r="T4" t="s">
+        <v>16</v>
+      </c>
+      <c r="U4">
+        <v>2.05E-4</v>
+      </c>
+      <c r="V4" t="s">
+        <v>17</v>
+      </c>
+      <c r="W4">
+        <v>30.655529000000001</v>
+      </c>
+      <c r="X4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>32768</v>
+      </c>
+      <c r="B5">
+        <v>63.143450000000001</v>
+      </c>
+      <c r="C5">
+        <v>88.309351000000007</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>14</v>
+      </c>
+      <c r="R5" t="s">
+        <v>15</v>
+      </c>
+      <c r="S5">
+        <v>65536</v>
+      </c>
+      <c r="T5" t="s">
+        <v>16</v>
+      </c>
+      <c r="U5">
+        <v>2.8499999999999999E-4</v>
+      </c>
+      <c r="V5" t="s">
+        <v>17</v>
+      </c>
+      <c r="W5">
+        <v>44.076146999999999</v>
+      </c>
+      <c r="X5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>65536</v>
+      </c>
+      <c r="B6">
+        <v>90.147554999999997</v>
+      </c>
+      <c r="C6">
+        <v>140.01855699999999</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>14</v>
+      </c>
+      <c r="R6" t="s">
+        <v>15</v>
+      </c>
+      <c r="S6">
+        <v>131072</v>
+      </c>
+      <c r="T6" t="s">
+        <v>16</v>
+      </c>
+      <c r="U6">
+        <v>4.9100000000000001E-4</v>
+      </c>
+      <c r="V6" t="s">
+        <v>17</v>
+      </c>
+      <c r="W6">
+        <v>51.244725000000003</v>
+      </c>
+      <c r="X6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>131072</v>
+      </c>
+      <c r="B7">
+        <v>126.281543</v>
+      </c>
+      <c r="C7">
+        <v>186.460554</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>14</v>
+      </c>
+      <c r="R7" t="s">
+        <v>15</v>
+      </c>
+      <c r="S7">
+        <v>262144</v>
+      </c>
+      <c r="T7" t="s">
+        <v>16</v>
+      </c>
+      <c r="U7">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="V7" t="s">
+        <v>17</v>
+      </c>
+      <c r="W7">
+        <v>55.920329000000002</v>
+      </c>
+      <c r="X7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>262144</v>
+      </c>
+      <c r="B8">
+        <v>162.577112</v>
+      </c>
+      <c r="C8">
+        <v>209.73191600000001</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>14</v>
+      </c>
+      <c r="R8" t="s">
+        <v>15</v>
+      </c>
+      <c r="S8">
+        <v>524288</v>
+      </c>
+      <c r="T8" t="s">
+        <v>16</v>
+      </c>
+      <c r="U8">
+        <v>2.0590000000000001E-3</v>
+      </c>
+      <c r="V8" t="s">
+        <v>17</v>
+      </c>
+      <c r="W8">
+        <v>48.879204999999999</v>
+      </c>
+      <c r="X8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>524288</v>
+      </c>
+      <c r="B9">
+        <v>180.848333</v>
+      </c>
+      <c r="C9">
+        <v>199.15323599999999</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>14</v>
+      </c>
+      <c r="R9" t="s">
+        <v>15</v>
+      </c>
+      <c r="S9">
+        <v>1048576</v>
+      </c>
+      <c r="T9" t="s">
+        <v>16</v>
+      </c>
+      <c r="U9">
+        <v>4.7590000000000002E-3</v>
+      </c>
+      <c r="V9" t="s">
+        <v>17</v>
+      </c>
+      <c r="W9">
+        <v>42.307775999999997</v>
+      </c>
+      <c r="X9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1048576</v>
+      </c>
+      <c r="B10">
+        <v>184.180654</v>
+      </c>
+      <c r="C10">
+        <v>190.44818799999999</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>14</v>
+      </c>
+      <c r="R10" t="s">
+        <v>15</v>
+      </c>
+      <c r="S10">
+        <v>2097152</v>
+      </c>
+      <c r="T10" t="s">
+        <v>16</v>
+      </c>
+      <c r="U10">
+        <v>9.1380000000000003E-3</v>
+      </c>
+      <c r="V10" t="s">
+        <v>17</v>
+      </c>
+      <c r="W10">
+        <v>44.061318999999997</v>
+      </c>
+      <c r="X10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2097152</v>
+      </c>
+      <c r="B11">
+        <v>193.41868700000001</v>
+      </c>
+      <c r="C11">
+        <v>192.291493</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>14</v>
+      </c>
+      <c r="R11" t="s">
+        <v>15</v>
+      </c>
+      <c r="S11">
+        <v>4194304</v>
+      </c>
+      <c r="T11" t="s">
+        <v>16</v>
+      </c>
+      <c r="U11">
+        <v>1.8284999999999999E-2</v>
+      </c>
+      <c r="V11" t="s">
+        <v>17</v>
+      </c>
+      <c r="W11">
+        <v>44.042558</v>
+      </c>
+      <c r="X11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>4194304</v>
+      </c>
+      <c r="B12">
+        <v>193.34579500000001</v>
+      </c>
+      <c r="C12">
+        <v>193.77096499999999</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>14</v>
+      </c>
+      <c r="R12" t="s">
+        <v>15</v>
+      </c>
+      <c r="S12">
+        <v>8388608</v>
+      </c>
+      <c r="T12" t="s">
+        <v>16</v>
+      </c>
+      <c r="U12">
+        <v>3.7243999999999999E-2</v>
+      </c>
+      <c r="V12" t="s">
+        <v>17</v>
+      </c>
+      <c r="W12">
+        <v>43.245288000000002</v>
+      </c>
+      <c r="X12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>8388608</v>
+      </c>
+      <c r="B13">
+        <v>191.415874</v>
+      </c>
+      <c r="C13">
+        <v>189.794524</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>14</v>
+      </c>
+      <c r="R13" t="s">
+        <v>15</v>
+      </c>
+      <c r="S13">
+        <v>16777216</v>
+      </c>
+      <c r="T13" t="s">
+        <v>16</v>
+      </c>
+      <c r="U13">
+        <v>7.4339000000000002E-2</v>
+      </c>
+      <c r="V13" t="s">
+        <v>17</v>
+      </c>
+      <c r="W13">
+        <v>43.331361000000001</v>
+      </c>
+      <c r="X13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>16777216</v>
+      </c>
+      <c r="B14">
+        <v>192.43140199999999</v>
+      </c>
+      <c r="C14">
+        <v>190.736963</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="N15" t="s">
+        <v>53</v>
+      </c>
+      <c r="O15" t="s">
+        <v>50</v>
+      </c>
+      <c r="P15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+      <c r="N16">
+        <v>4096</v>
+      </c>
+      <c r="O16">
+        <v>4.8869360000000004</v>
+      </c>
+      <c r="P16">
+        <v>5.233568</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>4096</v>
+      </c>
+      <c r="B17">
+        <v>52.184989000000002</v>
+      </c>
+      <c r="C17">
+        <v>138.58807999999999</v>
+      </c>
+      <c r="D17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" t="s">
+        <v>58</v>
+      </c>
+      <c r="N17">
+        <v>8192</v>
+      </c>
+      <c r="O17">
+        <v>9.2313189999999992</v>
+      </c>
+      <c r="P17">
+        <v>9.5557770000000009</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>8192</v>
+      </c>
+      <c r="B18">
+        <v>101.33747700000001</v>
+      </c>
+      <c r="C18">
+        <v>252.42086399999999</v>
+      </c>
+      <c r="N18">
+        <v>16384</v>
+      </c>
+      <c r="O18">
+        <v>13.926977000000001</v>
+      </c>
+      <c r="P18">
+        <v>19.328673999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>16384</v>
+      </c>
+      <c r="B19">
+        <v>152.847936</v>
+      </c>
+      <c r="C19">
+        <v>429.61420199999998</v>
+      </c>
+      <c r="N19">
+        <v>32768</v>
+      </c>
+      <c r="O19">
+        <v>20.594123</v>
+      </c>
+      <c r="P19">
+        <v>30.655529000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>32768</v>
+      </c>
+      <c r="B20">
+        <v>370.11870199999998</v>
+      </c>
+      <c r="C20">
+        <v>668.10505699999999</v>
+      </c>
+      <c r="N20">
+        <v>65536</v>
+      </c>
+      <c r="O20">
+        <v>30.378757</v>
+      </c>
+      <c r="P20">
+        <v>44.076146999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>65536</v>
+      </c>
+      <c r="B21">
+        <v>576.79235500000004</v>
+      </c>
+      <c r="C21">
+        <v>999.84385899999995</v>
+      </c>
+      <c r="N21">
+        <v>131072</v>
+      </c>
+      <c r="O21">
+        <v>37.442132999999998</v>
+      </c>
+      <c r="P21">
+        <v>51.244725000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>131072</v>
+      </c>
+      <c r="B22">
+        <v>840.41714899999999</v>
+      </c>
+      <c r="C22">
+        <v>1381.2237150000001</v>
+      </c>
+      <c r="N22">
+        <v>262144</v>
+      </c>
+      <c r="O22">
+        <v>42.805889000000001</v>
+      </c>
+      <c r="P22">
+        <v>55.920329000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>262144</v>
+      </c>
+      <c r="B23">
+        <v>1206.5674690000001</v>
+      </c>
+      <c r="C23">
+        <v>1653.2274379999999</v>
+      </c>
+      <c r="N23">
+        <v>524288</v>
+      </c>
+      <c r="O23">
+        <v>43.744269000000003</v>
+      </c>
+      <c r="P23">
+        <v>48.879204999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>524288</v>
+      </c>
+      <c r="B24">
+        <v>1346.7779559999999</v>
+      </c>
+      <c r="C24">
+        <v>1579.763997</v>
+      </c>
+      <c r="N24">
+        <v>1048576</v>
+      </c>
+      <c r="O24">
+        <v>41.337370999999997</v>
+      </c>
+      <c r="P24">
+        <v>42.307775999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1048576</v>
+      </c>
+      <c r="B25">
+        <v>1436.9956749999999</v>
+      </c>
+      <c r="C25">
+        <v>1528.693254</v>
+      </c>
+      <c r="N25">
+        <v>2097152</v>
+      </c>
+      <c r="O25">
+        <v>43.745367999999999</v>
+      </c>
+      <c r="P25">
+        <v>44.061318999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2097152</v>
+      </c>
+      <c r="B26">
+        <v>1552.8750010000001</v>
+      </c>
+      <c r="C26">
+        <v>1538.485377</v>
+      </c>
+      <c r="N26">
+        <v>4194304</v>
+      </c>
+      <c r="O26">
+        <v>44.210669000000003</v>
+      </c>
+      <c r="P26">
+        <v>44.042558</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>4194304</v>
+      </c>
+      <c r="B27">
+        <v>1621.0008439999999</v>
+      </c>
+      <c r="C27">
+        <v>1562.3208529999999</v>
+      </c>
+      <c r="N27">
+        <v>8388608</v>
+      </c>
+      <c r="O27">
+        <v>43.940451000000003</v>
+      </c>
+      <c r="P27">
+        <v>43.245288000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>8388608</v>
+      </c>
+      <c r="B28">
+        <v>1624.9569590000001</v>
+      </c>
+      <c r="C28">
+        <v>1524.2312810000001</v>
+      </c>
+      <c r="N28">
+        <v>16777216</v>
+      </c>
+      <c r="O28">
+        <v>43.628171999999999</v>
+      </c>
+      <c r="P28">
+        <v>43.331361000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>16777216</v>
+      </c>
+      <c r="B29">
+        <v>1634.047245</v>
+      </c>
+      <c r="C29">
+        <v>1560.7592460000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>4096</v>
+      </c>
+      <c r="B32">
+        <v>18.262734999999999</v>
+      </c>
+      <c r="C32">
+        <v>49.214528999999999</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="Q32" t="s">
+        <v>59</v>
+      </c>
+      <c r="R32" t="s">
+        <v>61</v>
+      </c>
+      <c r="S32" t="s">
+        <v>62</v>
+      </c>
+      <c r="V32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>8192</v>
+      </c>
+      <c r="B33">
+        <v>62.947938000000001</v>
+      </c>
+      <c r="C33">
+        <v>78.557305999999997</v>
+      </c>
+      <c r="Q33">
+        <v>2.0312E-2</v>
+      </c>
+      <c r="R33">
+        <v>1.9800999999999999E-2</v>
+      </c>
+      <c r="S33">
+        <v>2.8524999999999998E-2</v>
+      </c>
+      <c r="V33" s="3">
+        <v>1.21E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>16384</v>
+      </c>
+      <c r="B34">
+        <v>95.568985999999995</v>
+      </c>
+      <c r="C34">
+        <v>124.42348</v>
+      </c>
+      <c r="Q34">
+        <v>1.9164E-2</v>
+      </c>
+      <c r="R34">
+        <v>1.9022000000000001E-2</v>
+      </c>
+      <c r="S34">
+        <v>2.8235E-2</v>
+      </c>
+      <c r="V34" s="3">
+        <v>1.0113E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>32768</v>
+      </c>
+      <c r="B35">
+        <v>128.284267</v>
+      </c>
+      <c r="C35">
+        <v>158.92972900000001</v>
+      </c>
+      <c r="P35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>65536</v>
+      </c>
+      <c r="B36">
+        <v>189.939797</v>
+      </c>
+      <c r="C36">
+        <v>243.22586100000001</v>
+      </c>
+      <c r="P36" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q36">
+        <f>Q33-$V33</f>
+        <v>8.2120000000000005E-3</v>
+      </c>
+      <c r="R36">
+        <f>R33-$V33</f>
+        <v>7.7009999999999995E-3</v>
+      </c>
+      <c r="V36" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>131072</v>
+      </c>
+      <c r="B37">
+        <v>274.72895199999999</v>
+      </c>
+      <c r="C37">
+        <v>295.47083900000001</v>
+      </c>
+      <c r="P37" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q37">
+        <f>Q34-$V34</f>
+        <v>9.051E-3</v>
+      </c>
+      <c r="R37">
+        <f>R34-$V34</f>
+        <v>8.9090000000000003E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>262144</v>
+      </c>
+      <c r="B38">
+        <v>307.156182</v>
+      </c>
+      <c r="C38">
+        <v>330.98473200000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>524288</v>
+      </c>
+      <c r="B39">
+        <v>336.789242</v>
+      </c>
+      <c r="C39">
+        <v>345.941101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>1048576</v>
+      </c>
+      <c r="B40">
+        <v>369.944164</v>
+      </c>
+      <c r="C40">
+        <v>381.31415800000002</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>2097152</v>
+      </c>
+      <c r="B41">
+        <v>338.61313200000001</v>
+      </c>
+      <c r="C41">
+        <v>373.711793</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>4194304</v>
+      </c>
+      <c r="B42">
+        <v>319.76512400000001</v>
+      </c>
+      <c r="C42">
+        <v>362.06022300000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>8388608</v>
+      </c>
+      <c r="B43">
+        <v>315.14479399999999</v>
+      </c>
+      <c r="C43">
+        <v>356.273909</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>16777216</v>
+      </c>
+      <c r="B44">
+        <v>316.68131799999998</v>
+      </c>
+      <c r="C44">
+        <v>355.67433899999997</v>
+      </c>
+    </row>
+    <row r="51" spans="16:19" x14ac:dyDescent="0.2">
+      <c r="Q51" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63" spans="16:19" x14ac:dyDescent="0.2">
+      <c r="P63" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64" spans="16:19" x14ac:dyDescent="0.2">
+      <c r="P64" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>59</v>
+      </c>
+      <c r="R64" t="s">
+        <v>61</v>
+      </c>
+      <c r="S64" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="16:19" x14ac:dyDescent="0.2">
+      <c r="P65" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q65">
+        <v>1.5585E-2</v>
+      </c>
+      <c r="R65">
+        <v>1.0736000000000001E-2</v>
+      </c>
+      <c r="S65">
+        <v>2.3923E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="16:19" x14ac:dyDescent="0.2">
+      <c r="P66" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q66">
+        <v>1.5532000000000001E-2</v>
+      </c>
+      <c r="R66">
+        <v>1.0116E-2</v>
+      </c>
+      <c r="S66" s="3">
+        <v>2.3163E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="16:19" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="P68" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="82" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P82" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>